--- a/data/input/fix_nivel.xlsx
+++ b/data/input/fix_nivel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eafit-my.sharepoint.com/personal/jmunozm1_eafit_edu_co/Documents/Projects/2023_BID_PulsoSocial/07_RPulsosocial/PulsoSocialColombia/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="11_356B7ECA8F79A8D366075C52F37BD2726A49EAB2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7164909-AD86-4F69-BC83-32D500034F16}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="11_356B7ECA8F79A8D366075C52F37BD2726A49EAB2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7559FC51-1769-48A6-9089-40C9CF0A45DA}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="153">
   <si>
     <t>nivel_type</t>
   </si>
@@ -461,6 +461,24 @@
   </si>
   <si>
     <t>Otras Cabeceras</t>
+  </si>
+  <si>
+    <t>Medellin</t>
+  </si>
+  <si>
+    <t>Monteria</t>
+  </si>
+  <si>
+    <t>Cucuta</t>
+  </si>
+  <si>
+    <t>Ibague</t>
+  </si>
+  <si>
+    <t>Bogota,D.C</t>
+  </si>
+  <si>
+    <t>MedellinA.M.</t>
   </si>
 </sst>
 </file>
@@ -822,19 +840,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E99"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -851,7 +869,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -868,7 +886,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -885,7 +903,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -902,7 +920,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -919,7 +937,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -936,7 +954,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -953,7 +971,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -970,7 +988,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -987,7 +1005,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -1004,7 +1022,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -1021,7 +1039,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -1038,7 +1056,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -1055,7 +1073,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -1072,7 +1090,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -1089,7 +1107,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -1106,7 +1124,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -1123,7 +1141,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1140,12 +1158,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="C19" t="s">
         <v>38</v>
@@ -1157,1366 +1175,1485 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
       <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
         <v>69</v>
       </c>
-      <c r="C20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20">
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21">
         <v>6</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
         <v>70</v>
       </c>
-      <c r="C21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21">
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23">
         <v>7</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E23" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
         <v>71</v>
       </c>
-      <c r="C22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22">
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24">
         <v>14</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E24" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
         <v>72</v>
       </c>
-      <c r="C23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23">
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25">
         <v>15</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E25" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
         <v>73</v>
       </c>
-      <c r="C24" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24">
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26">
         <v>8</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E26" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
         <v>74</v>
       </c>
-      <c r="C25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25">
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27">
         <v>16</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E27" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" t="s">
         <v>75</v>
       </c>
-      <c r="C26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26">
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28">
         <v>17</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E28" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" t="s">
         <v>78</v>
       </c>
-      <c r="C27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27">
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29">
         <v>7</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E29" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
         <v>79</v>
       </c>
-      <c r="C28" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28">
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30">
         <v>2</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E30" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
         <v>80</v>
       </c>
-      <c r="C29" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29">
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31">
         <v>14</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E31" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" t="s">
         <v>81</v>
       </c>
-      <c r="C30" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30">
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32">
         <v>10</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E32" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" t="s">
         <v>82</v>
       </c>
-      <c r="C31" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31">
+      <c r="C33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33">
         <v>13</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E33" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34">
+        <v>7</v>
+      </c>
+      <c r="E34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36">
+        <v>14</v>
+      </c>
+      <c r="E36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38">
+        <v>13</v>
+      </c>
+      <c r="E38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
         <v>83</v>
       </c>
-      <c r="C32" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32">
+      <c r="C39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39">
         <v>0</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
         <v>93</v>
       </c>
-      <c r="C33" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33">
+      <c r="C40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40">
         <v>18</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E40" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
         <v>94</v>
       </c>
-      <c r="C34" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34">
+      <c r="C41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41">
         <v>19</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E41" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" t="s">
         <v>95</v>
       </c>
-      <c r="C35" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35">
+      <c r="C42" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42">
         <v>20</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E42" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" t="s">
         <v>96</v>
       </c>
-      <c r="C36" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36">
+      <c r="C43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43">
         <v>21</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E43" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" t="s">
         <v>97</v>
       </c>
-      <c r="C37" t="s">
-        <v>38</v>
-      </c>
-      <c r="D37">
+      <c r="C44" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44">
         <v>22</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E44" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" t="s">
         <v>98</v>
       </c>
-      <c r="C38" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38">
+      <c r="C45" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45">
         <v>23</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E45" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" t="s">
         <v>99</v>
       </c>
-      <c r="C39" t="s">
-        <v>38</v>
-      </c>
-      <c r="D39">
+      <c r="C46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46">
         <v>24</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E46" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" t="s">
         <v>100</v>
       </c>
-      <c r="C40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D40">
+      <c r="C47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47">
         <v>25</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E47" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" t="s">
         <v>101</v>
       </c>
-      <c r="C41" t="s">
-        <v>38</v>
-      </c>
-      <c r="D41">
+      <c r="C48" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48">
         <v>26</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E48" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
         <v>5</v>
       </c>
-      <c r="C42" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42">
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49">
         <v>5</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E49" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
         <v>6</v>
       </c>
-      <c r="C43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43">
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50">
         <v>8</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E50" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" t="s">
         <v>7</v>
       </c>
-      <c r="C44" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44">
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51">
         <v>11</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E51" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" t="s">
         <v>8</v>
       </c>
-      <c r="C45" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45">
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52">
         <v>13</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E52" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" t="s">
         <v>9</v>
       </c>
-      <c r="C46" t="s">
-        <v>4</v>
-      </c>
-      <c r="D46">
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53">
         <v>15</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E53" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s">
         <v>10</v>
       </c>
-      <c r="C47" t="s">
-        <v>4</v>
-      </c>
-      <c r="D47">
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54">
         <v>17</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E54" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" t="s">
         <v>11</v>
       </c>
-      <c r="C48" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48">
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55">
         <v>18</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E55" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>4</v>
-      </c>
-      <c r="B49" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" t="s">
         <v>12</v>
       </c>
-      <c r="C49" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49">
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56">
         <v>19</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E56" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>4</v>
-      </c>
-      <c r="B50" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" t="s">
         <v>13</v>
       </c>
-      <c r="C50" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50">
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57">
         <v>20</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E57" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" t="s">
         <v>14</v>
       </c>
-      <c r="C51" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51">
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58">
         <v>23</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E58" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>4</v>
-      </c>
-      <c r="B52" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" t="s">
         <v>15</v>
       </c>
-      <c r="C52" t="s">
-        <v>4</v>
-      </c>
-      <c r="D52">
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59">
         <v>25</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E59" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>4</v>
-      </c>
-      <c r="B53" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" t="s">
         <v>16</v>
       </c>
-      <c r="C53" t="s">
-        <v>4</v>
-      </c>
-      <c r="D53">
+      <c r="C60" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60">
         <v>27</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E60" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>4</v>
-      </c>
-      <c r="B54" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" t="s">
         <v>17</v>
       </c>
-      <c r="C54" t="s">
-        <v>4</v>
-      </c>
-      <c r="D54">
+      <c r="C61" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61">
         <v>41</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E61" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>4</v>
-      </c>
-      <c r="B55" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" t="s">
         <v>18</v>
       </c>
-      <c r="C55" t="s">
-        <v>4</v>
-      </c>
-      <c r="D55">
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62">
         <v>44</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E62" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>4</v>
-      </c>
-      <c r="B56" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" t="s">
         <v>19</v>
       </c>
-      <c r="C56" t="s">
-        <v>4</v>
-      </c>
-      <c r="D56">
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63">
         <v>47</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E63" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>4</v>
-      </c>
-      <c r="B57" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" t="s">
         <v>20</v>
       </c>
-      <c r="C57" t="s">
-        <v>4</v>
-      </c>
-      <c r="D57">
+      <c r="C64" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64">
         <v>50</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E64" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>4</v>
-      </c>
-      <c r="B58" t="s">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" t="s">
         <v>21</v>
       </c>
-      <c r="C58" t="s">
-        <v>4</v>
-      </c>
-      <c r="D58">
+      <c r="C65" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65">
         <v>52</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E65" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>4</v>
-      </c>
-      <c r="B59" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" t="s">
         <v>22</v>
       </c>
-      <c r="C59" t="s">
-        <v>4</v>
-      </c>
-      <c r="D59">
+      <c r="C66" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66">
         <v>54</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E66" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>4</v>
-      </c>
-      <c r="B60" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" t="s">
         <v>23</v>
       </c>
-      <c r="C60" t="s">
-        <v>4</v>
-      </c>
-      <c r="D60">
+      <c r="C67" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67">
         <v>63</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E67" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>4</v>
-      </c>
-      <c r="B61" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" t="s">
         <v>24</v>
       </c>
-      <c r="C61" t="s">
-        <v>4</v>
-      </c>
-      <c r="D61">
+      <c r="C68" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68">
         <v>66</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E68" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>4</v>
-      </c>
-      <c r="B62" t="s">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" t="s">
         <v>25</v>
       </c>
-      <c r="C62" t="s">
-        <v>4</v>
-      </c>
-      <c r="D62">
+      <c r="C69" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69">
         <v>68</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E69" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>4</v>
-      </c>
-      <c r="B63" t="s">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" t="s">
         <v>26</v>
       </c>
-      <c r="C63" t="s">
-        <v>4</v>
-      </c>
-      <c r="D63">
+      <c r="C70" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70">
         <v>70</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E70" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>4</v>
-      </c>
-      <c r="B64" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" t="s">
         <v>27</v>
       </c>
-      <c r="C64" t="s">
-        <v>4</v>
-      </c>
-      <c r="D64">
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71">
         <v>73</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E71" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>4</v>
-      </c>
-      <c r="B65" t="s">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" t="s">
         <v>28</v>
       </c>
-      <c r="C65" t="s">
-        <v>4</v>
-      </c>
-      <c r="D65">
+      <c r="C72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72">
         <v>76</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E72" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>4</v>
-      </c>
-      <c r="B66" t="s">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" t="s">
         <v>29</v>
       </c>
-      <c r="C66" t="s">
-        <v>4</v>
-      </c>
-      <c r="D66">
+      <c r="C73" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73">
         <v>81</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E73" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>4</v>
-      </c>
-      <c r="B67" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" t="s">
         <v>30</v>
       </c>
-      <c r="C67" t="s">
-        <v>4</v>
-      </c>
-      <c r="D67">
+      <c r="C74" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74">
         <v>85</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E74" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>4</v>
-      </c>
-      <c r="B68" t="s">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" t="s">
         <v>31</v>
       </c>
-      <c r="C68" t="s">
-        <v>4</v>
-      </c>
-      <c r="D68">
+      <c r="C75" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75">
         <v>86</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E75" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>4</v>
-      </c>
-      <c r="B69" t="s">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" t="s">
         <v>32</v>
       </c>
-      <c r="C69" t="s">
-        <v>4</v>
-      </c>
-      <c r="D69">
+      <c r="C76" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76">
         <v>88</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E76" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>4</v>
-      </c>
-      <c r="B70" t="s">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" t="s">
         <v>33</v>
       </c>
-      <c r="C70" t="s">
-        <v>4</v>
-      </c>
-      <c r="D70">
+      <c r="C77" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77">
         <v>91</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E77" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>4</v>
-      </c>
-      <c r="B71" t="s">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" t="s">
         <v>34</v>
       </c>
-      <c r="C71" t="s">
-        <v>4</v>
-      </c>
-      <c r="D71">
+      <c r="C78" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78">
         <v>94</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E78" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>4</v>
-      </c>
-      <c r="B72" t="s">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" t="s">
         <v>35</v>
       </c>
-      <c r="C72" t="s">
-        <v>4</v>
-      </c>
-      <c r="D72">
+      <c r="C79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79">
         <v>95</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E79" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>4</v>
-      </c>
-      <c r="B73" t="s">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" t="s">
         <v>36</v>
       </c>
-      <c r="C73" t="s">
-        <v>4</v>
-      </c>
-      <c r="D73">
+      <c r="C80" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80">
         <v>97</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E80" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>4</v>
-      </c>
-      <c r="B74" t="s">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" t="s">
         <v>37</v>
       </c>
-      <c r="C74" t="s">
-        <v>4</v>
-      </c>
-      <c r="D74">
+      <c r="C81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81">
         <v>99</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E81" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>4</v>
-      </c>
-      <c r="B75" t="s">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" t="s">
         <v>52</v>
       </c>
-      <c r="C75" t="s">
-        <v>4</v>
-      </c>
-      <c r="D75">
+      <c r="C82" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82">
         <v>100</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E82" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>4</v>
-      </c>
-      <c r="B76" t="s">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" t="s">
         <v>90</v>
       </c>
-      <c r="C76" t="s">
-        <v>4</v>
-      </c>
-      <c r="D76">
+      <c r="C83" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83">
         <v>5</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E83" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>4</v>
-      </c>
-      <c r="B77" t="s">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" t="s">
         <v>91</v>
       </c>
-      <c r="C77" t="s">
-        <v>4</v>
-      </c>
-      <c r="D77">
+      <c r="C84" t="s">
+        <v>4</v>
+      </c>
+      <c r="D84">
         <v>8</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E84" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>4</v>
-      </c>
-      <c r="B78" t="s">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85" t="s">
         <v>3</v>
       </c>
-      <c r="C78" t="s">
-        <v>4</v>
-      </c>
-      <c r="D78">
+      <c r="C85" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85">
         <v>1</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E85" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>2</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B86" t="s">
         <v>3</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C86" t="s">
         <v>2</v>
       </c>
-      <c r="D79">
+      <c r="D86">
         <v>1</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E86" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>2</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C87" t="s">
         <v>2</v>
       </c>
-      <c r="D80">
+      <c r="D87">
         <v>1</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E87" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>57</v>
-      </c>
-      <c r="B81" t="s">
-        <v>58</v>
-      </c>
-      <c r="C81" t="s">
-        <v>57</v>
-      </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-      <c r="E81" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>57</v>
-      </c>
-      <c r="B82" t="s">
-        <v>59</v>
-      </c>
-      <c r="C82" t="s">
-        <v>57</v>
-      </c>
-      <c r="D82">
-        <v>2</v>
-      </c>
-      <c r="E82" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>57</v>
-      </c>
-      <c r="B83" t="s">
-        <v>60</v>
-      </c>
-      <c r="C83" t="s">
-        <v>57</v>
-      </c>
-      <c r="D83">
-        <v>3</v>
-      </c>
-      <c r="E83" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>57</v>
-      </c>
-      <c r="B84" t="s">
-        <v>61</v>
-      </c>
-      <c r="C84" t="s">
-        <v>57</v>
-      </c>
-      <c r="D84">
-        <v>4</v>
-      </c>
-      <c r="E84" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>57</v>
-      </c>
-      <c r="B85" t="s">
-        <v>62</v>
-      </c>
-      <c r="C85" t="s">
-        <v>57</v>
-      </c>
-      <c r="D85">
-        <v>5</v>
-      </c>
-      <c r="E85" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>57</v>
-      </c>
-      <c r="B86" t="s">
-        <v>63</v>
-      </c>
-      <c r="C86" t="s">
-        <v>57</v>
-      </c>
-      <c r="D86">
-        <v>6</v>
-      </c>
-      <c r="E86" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>57</v>
-      </c>
-      <c r="B87" t="s">
-        <v>84</v>
-      </c>
-      <c r="C87" t="s">
-        <v>57</v>
-      </c>
-      <c r="D87">
-        <v>7</v>
-      </c>
-      <c r="E87" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>57</v>
       </c>
       <c r="B88" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="C88" t="s">
         <v>57</v>
       </c>
       <c r="D88">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>57</v>
       </c>
       <c r="B89" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="C89" t="s">
         <v>57</v>
       </c>
       <c r="D89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E89" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>57</v>
       </c>
       <c r="B90" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="C90" t="s">
         <v>57</v>
       </c>
       <c r="D90">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E90" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>57</v>
       </c>
       <c r="B91" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C91" t="s">
         <v>57</v>
       </c>
       <c r="D91">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E91" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>57</v>
       </c>
       <c r="B92" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C92" t="s">
         <v>57</v>
       </c>
       <c r="D92">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E92" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>57</v>
       </c>
       <c r="B93" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="C93" t="s">
         <v>57</v>
       </c>
       <c r="D93">
+        <v>6</v>
+      </c>
+      <c r="E93" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>57</v>
+      </c>
+      <c r="B94" t="s">
+        <v>84</v>
+      </c>
+      <c r="C94" t="s">
+        <v>57</v>
+      </c>
+      <c r="D94">
+        <v>7</v>
+      </c>
+      <c r="E94" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>57</v>
+      </c>
+      <c r="B95" t="s">
+        <v>85</v>
+      </c>
+      <c r="C95" t="s">
+        <v>57</v>
+      </c>
+      <c r="D95">
+        <v>4</v>
+      </c>
+      <c r="E95" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>57</v>
+      </c>
+      <c r="B96" t="s">
+        <v>86</v>
+      </c>
+      <c r="C96" t="s">
+        <v>57</v>
+      </c>
+      <c r="D96">
+        <v>3</v>
+      </c>
+      <c r="E96" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>57</v>
+      </c>
+      <c r="B97" t="s">
+        <v>87</v>
+      </c>
+      <c r="C97" t="s">
+        <v>57</v>
+      </c>
+      <c r="D97">
+        <v>5</v>
+      </c>
+      <c r="E97" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>57</v>
+      </c>
+      <c r="B98" t="s">
+        <v>41</v>
+      </c>
+      <c r="C98" t="s">
+        <v>57</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>57</v>
+      </c>
+      <c r="B99" t="s">
+        <v>88</v>
+      </c>
+      <c r="C99" t="s">
+        <v>57</v>
+      </c>
+      <c r="D99">
+        <v>8</v>
+      </c>
+      <c r="E99" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>57</v>
+      </c>
+      <c r="B100" t="s">
+        <v>89</v>
+      </c>
+      <c r="C100" t="s">
+        <v>57</v>
+      </c>
+      <c r="D100">
         <v>9</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E100" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>53</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B101" t="s">
         <v>54</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C101" t="s">
         <v>53</v>
       </c>
-      <c r="D94">
+      <c r="D101">
         <v>1</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E101" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>53</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B102" t="s">
         <v>55</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C102" t="s">
         <v>53</v>
       </c>
-      <c r="D95">
+      <c r="D102">
         <v>2</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E102" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>53</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B103" t="s">
         <v>56</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C103" t="s">
         <v>53</v>
       </c>
-      <c r="D96">
+      <c r="D103">
         <v>2</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E103" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>53</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B104" t="s">
         <v>76</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C104" t="s">
         <v>53</v>
       </c>
-      <c r="D97">
+      <c r="D104">
         <v>1</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E104" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>53</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B105" t="s">
         <v>77</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C105" t="s">
         <v>53</v>
       </c>
-      <c r="D98">
+      <c r="D105">
         <v>3</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E105" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>53</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B106" t="s">
         <v>92</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C106" t="s">
         <v>53</v>
       </c>
-      <c r="D99">
+      <c r="D106">
         <v>1</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E106" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E99">
-    <sortCondition ref="A1:A99"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E106">
+    <sortCondition ref="A1:A106"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
